--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lgi3-Adam23.xlsx
@@ -528,52 +528,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H2">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J2">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="N2">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="O2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="P2">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="Q2">
-        <v>0.03025219115204161</v>
+        <v>0.03431500075955556</v>
       </c>
       <c r="R2">
-        <v>0.03025219115204161</v>
+        <v>0.308835006836</v>
       </c>
       <c r="S2">
-        <v>0.003267555124486158</v>
+        <v>0.003271610373509393</v>
       </c>
       <c r="T2">
-        <v>0.003267555124486158</v>
+        <v>0.003271610373509394</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H3">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J3">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="N3">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="O3">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="P3">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="Q3">
-        <v>2.43757292936666</v>
+        <v>2.812453684627112</v>
       </c>
       <c r="R3">
-        <v>2.43757292936666</v>
+        <v>25.312083161644</v>
       </c>
       <c r="S3">
-        <v>0.263283537930549</v>
+        <v>0.2681408260519574</v>
       </c>
       <c r="T3">
-        <v>0.263283537930549</v>
+        <v>0.2681408260519574</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.271846125105469</v>
+        <v>0.2994946666666667</v>
       </c>
       <c r="H4">
-        <v>0.271846125105469</v>
+        <v>0.8984840000000001</v>
       </c>
       <c r="I4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962827</v>
       </c>
       <c r="J4">
-        <v>0.4946525460930711</v>
+        <v>0.4989451716962828</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="N4">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="O4">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="P4">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="Q4">
-        <v>2.111844635046595</v>
+        <v>2.386526845269334</v>
       </c>
       <c r="R4">
-        <v>2.111844635046595</v>
+        <v>21.478741607424</v>
       </c>
       <c r="S4">
-        <v>0.2281014530380359</v>
+        <v>0.2275327352708159</v>
       </c>
       <c r="T4">
-        <v>0.2281014530380359</v>
+        <v>0.2275327352708159</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H5">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J5">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111284246337168</v>
+        <v>0.1145763333333333</v>
       </c>
       <c r="N5">
-        <v>0.111284246337168</v>
+        <v>0.343729</v>
       </c>
       <c r="O5">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="P5">
-        <v>0.006605758224220992</v>
+        <v>0.006557053879060051</v>
       </c>
       <c r="Q5">
-        <v>0.0309062753129213</v>
+        <v>0.03446009258966666</v>
       </c>
       <c r="R5">
-        <v>0.0309062753129213</v>
+        <v>0.3101408333069999</v>
       </c>
       <c r="S5">
-        <v>0.003338203099734835</v>
+        <v>0.003285443505550656</v>
       </c>
       <c r="T5">
-        <v>0.003338203099734835</v>
+        <v>0.003285443505550656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H6">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J6">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.966737813242499</v>
+        <v>9.390663666666667</v>
       </c>
       <c r="N6">
-        <v>8.966737813242499</v>
+        <v>28.171991</v>
       </c>
       <c r="O6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="P6">
-        <v>0.5322595426022755</v>
+        <v>0.5374154140831726</v>
       </c>
       <c r="Q6">
-        <v>2.490275817434332</v>
+        <v>2.824345395050333</v>
       </c>
       <c r="R6">
-        <v>2.490275817434332</v>
+        <v>25.419108555453</v>
       </c>
       <c r="S6">
-        <v>0.2689760046717266</v>
+        <v>0.2692745880312151</v>
       </c>
       <c r="T6">
-        <v>0.2689760046717266</v>
+        <v>0.2692745880312151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2777237239787</v>
+        <v>0.300761</v>
       </c>
       <c r="H7">
-        <v>0.2777237239787</v>
+        <v>0.9022829999999999</v>
       </c>
       <c r="I7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="J7">
-        <v>0.505347453906929</v>
+        <v>0.5010548283037172</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.76852947316154</v>
+        <v>7.968512</v>
       </c>
       <c r="N7">
-        <v>7.76852947316154</v>
+        <v>23.905536</v>
       </c>
       <c r="O7">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="P7">
-        <v>0.4611346991735034</v>
+        <v>0.4560275320377672</v>
       </c>
       <c r="Q7">
-        <v>2.157504935124711</v>
+        <v>2.396617637632</v>
       </c>
       <c r="R7">
-        <v>2.157504935124711</v>
+        <v>21.569558738688</v>
       </c>
       <c r="S7">
-        <v>0.2330332461354676</v>
+        <v>0.2284947967669513</v>
       </c>
       <c r="T7">
-        <v>0.2330332461354676</v>
+        <v>0.2284947967669513</v>
       </c>
     </row>
   </sheetData>
